--- a/potato_data.xlsx
+++ b/potato_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\004IVJ744\Documents\Pepsico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5ACD3-E198-46EF-9D93-B693EBB87926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF4D21-20AD-4EBA-A1FC-250B285FE852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1642D68A-5006-4869-92B4-C67A5D2E1DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>BU</t>
   </si>
@@ -255,6 +258,30 @@
   </si>
   <si>
     <t>Hail, Wadi DawasirL.RVolume Contract</t>
+  </si>
+  <si>
+    <t>Buying Rate $/Ton</t>
+  </si>
+  <si>
+    <t>Plant Loss $/Ton</t>
+  </si>
+  <si>
+    <t>Cold Store Loss $/Ton</t>
+  </si>
+  <si>
+    <t>Leno Bag and Others $/Ton</t>
+  </si>
+  <si>
+    <t>Transportation cost Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation cost Kolkata            </t>
+  </si>
+  <si>
+    <t>Transportation cost Channo</t>
+  </si>
+  <si>
+    <t>Transportation cost UP</t>
   </si>
 </sst>
 </file>
@@ -627,18 +654,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A3E1FF-270A-4ED5-8F0C-54B5C8262524}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +694,32 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -689,8 +744,32 @@
       <c r="H2" s="1">
         <v>298.95586373156982</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <v>222.95586373156979</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1">
+        <v>32.1971191366938</v>
+      </c>
+      <c r="N2" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O2" s="1">
+        <v>54</v>
+      </c>
+      <c r="P2" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -715,8 +794,33 @@
       <c r="H3" s="1">
         <v>268.566980954565</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <v>192.56698095456497</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M5" si="0">4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O3" s="1">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -741,8 +845,33 @@
       <c r="H4" s="1">
         <v>270.54616030805488</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="1">
+        <v>192.54616030805488</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O4" s="1">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -767,8 +896,33 @@
       <c r="H5" s="1">
         <v>269.66058726011096</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <v>192.66058726011096</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O5" s="1">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -793,8 +947,32 @@
       <c r="H6" s="1">
         <v>252.80160211963786</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <v>188.80160211963786</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O6" s="1">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -819,8 +997,32 @@
       <c r="H7" s="1">
         <v>263.95941317423637</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="1">
+        <v>197.95941317423635</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O7" s="1">
+        <v>36</v>
+      </c>
+      <c r="P7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -845,8 +1047,32 @@
       <c r="H8" s="1">
         <v>251.91847774279981</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="1">
+        <v>198.32560690850767</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
+        <v>52.771084337349393</v>
+      </c>
+      <c r="P8" s="1">
+        <v>17.592870834292139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -871,8 +1097,32 @@
       <c r="H9" s="1">
         <v>224.14833032990884</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>181.02249648601384</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N9" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O9" s="1">
+        <v>22</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -897,8 +1147,34 @@
       <c r="H10" s="1">
         <v>214.84337349397583</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="1">
+        <v>166.74698795180717</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N10" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O10" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -923,8 +1199,34 @@
       <c r="H11" s="1">
         <v>216.18072289156629</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <v>166.74698795180726</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.3373493975903639</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N11" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O11" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -949,8 +1251,33 @@
       <c r="H12" s="1">
         <v>399.30120481927707</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="1">
+        <v>325.30120481927707</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N12" s="1">
+        <v>34</v>
+      </c>
+      <c r="O12" s="1">
+        <f>0.5/83*1000</f>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="P12" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1302,32 @@
       <c r="H13" s="1">
         <v>228.33285693165701</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="1">
+        <v>163.33285693165701</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1">
+        <v>32</v>
+      </c>
+      <c r="N13" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O13" s="1">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1001,8 +1352,32 @@
       <c r="H14" s="1">
         <v>219.52793146466911</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <v>157.52793146466911</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1">
+        <v>32</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O14" s="1">
+        <v>36</v>
+      </c>
+      <c r="P14" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1402,32 @@
       <c r="H15" s="1">
         <v>185.00094534827358</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <v>137.53149953712517</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6.8765749768562587</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1">
+        <v>30</v>
+      </c>
+      <c r="O15" s="1">
+        <v>52.771084337349393</v>
+      </c>
+      <c r="P15" s="1">
+        <v>17.592870834292139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1053,8 +1452,32 @@
       <c r="H16" s="1">
         <v>174.75884228650295</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="1">
+        <v>136.79334137391234</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.8396670686956167</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N16" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O16" s="1">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1079,8 +1502,33 @@
       <c r="H17" s="1">
         <v>230.49753386385726</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="1">
+        <v>154.93975903614461</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.7469879518072302</v>
+      </c>
+      <c r="K17" s="1">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N17" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O17" s="1">
+        <f>0.5/83*1000</f>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="P17" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1105,8 +1553,33 @@
       <c r="H18" s="1">
         <v>237.75054591204997</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="1">
+        <v>154.93975903614455</v>
+      </c>
+      <c r="J18" s="1">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N18" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O18" s="1">
+        <f>0.5/83*1000</f>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="P18" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1131,8 +1604,33 @@
       <c r="H19" s="1">
         <v>233.49753386385726</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="1">
+        <v>154.93975903614458</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.7469879518072284</v>
+      </c>
+      <c r="K19" s="1">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1">
+        <v>20</v>
+      </c>
+      <c r="M19" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N19" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O19" s="1">
+        <f>0.5/83*1000</f>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="P19" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1655,34 @@
       <c r="H20" s="1">
         <v>218.6482902294004</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="1">
+        <v>139.84524128904283</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6.9922620644521416</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N22" si="1">3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O20" s="1">
+        <f>0.51/81*1000</f>
+        <v>6.2962962962962967</v>
+      </c>
+      <c r="P20" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1183,8 +1707,34 @@
       <c r="H21" s="1">
         <v>244.43759043734991</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <v>162.62680356144449</v>
+      </c>
+      <c r="J21" s="1">
+        <v>14</v>
+      </c>
+      <c r="K21" s="1">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O21" s="1">
+        <f>0.51/81*1000</f>
+        <v>6.2962962962962967</v>
+      </c>
+      <c r="P21" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1209,8 +1759,34 @@
       <c r="H22" s="1">
         <v>219.24026099961691</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <v>142.3137848797252</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.1156892439862602</v>
+      </c>
+      <c r="K22" s="1">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O22" s="1">
+        <f>0.51/81*1000</f>
+        <v>6.2962962962962967</v>
+      </c>
+      <c r="P22" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1235,8 +1811,33 @@
       <c r="H23" s="1">
         <v>222.62650602409644</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <v>150.1204819277109</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7.5060240963855467</v>
+      </c>
+      <c r="K23" s="1">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1">
+        <v>16</v>
+      </c>
+      <c r="M23" s="1">
+        <v>26</v>
+      </c>
+      <c r="N23" s="1">
+        <v>24</v>
+      </c>
+      <c r="O23" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="P23" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1261,8 +1862,33 @@
       <c r="H24" s="1">
         <v>223.62184642890853</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="1">
+        <v>150.11604421800811</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.5058022109004057</v>
+      </c>
+      <c r="K24" s="1">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1">
+        <v>16</v>
+      </c>
+      <c r="M24" s="1">
+        <v>26</v>
+      </c>
+      <c r="N24" s="1">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="P24" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1287,8 +1913,33 @@
       <c r="H25" s="1">
         <v>219.62209060948359</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="1">
+        <v>150.11627677093676</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.5058138385468389</v>
+      </c>
+      <c r="K25" s="1">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1">
+        <v>16</v>
+      </c>
+      <c r="M25" s="1">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1">
+        <v>24</v>
+      </c>
+      <c r="O25" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="P25" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1313,8 +1964,33 @@
       <c r="H26" s="1">
         <v>227.73078764495366</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="1">
+        <v>149.73078764495366</v>
+      </c>
+      <c r="J26" s="1">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13</v>
+      </c>
+      <c r="L26" s="1">
+        <v>16</v>
+      </c>
+      <c r="M26" s="1">
+        <v>26</v>
+      </c>
+      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="P26" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1339,8 +2015,32 @@
       <c r="H27" s="1">
         <v>373.80174372775377</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="1">
+        <v>277.90642259786074</v>
+      </c>
+      <c r="J27" s="1">
+        <v>13.895321129893038</v>
+      </c>
+      <c r="K27" s="1">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1">
+        <v>20</v>
+      </c>
+      <c r="M27" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N27" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O27" s="1">
+        <v>54</v>
+      </c>
+      <c r="P27" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1365,8 +2065,35 @@
       <c r="H28" s="1">
         <v>278.71084337349384</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="1">
+        <v>179.51807228915652</v>
+      </c>
+      <c r="J28" s="1">
+        <v>8.9759036144578275</v>
+      </c>
+      <c r="K28" s="1">
+        <v>16</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N28" s="1">
+        <v>35.253555220099997</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28" si="2">4/83*1000</f>
+        <v>48.192771084337352</v>
+      </c>
+      <c r="P28" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1391,8 +2118,35 @@
       <c r="H29" s="1">
         <v>273.71084337349396</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="1">
+        <v>179.51807228915663</v>
+      </c>
+      <c r="J29" s="1">
+        <v>8.9759036144578328</v>
+      </c>
+      <c r="K29" s="1">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N29" s="1">
+        <v>35.253555220099997</v>
+      </c>
+      <c r="O29" s="1">
+        <f>4/83*1000</f>
+        <v>48.192771084337352</v>
+      </c>
+      <c r="P29" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1417,8 +2171,33 @@
       <c r="H30" s="1">
         <v>306.64817389473535</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="1">
+        <v>214.90302275689078</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10.745151137844539</v>
+      </c>
+      <c r="K30" s="1">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1">
+        <v>20</v>
+      </c>
+      <c r="M30" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N30" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O30" s="1">
+        <v>54</v>
+      </c>
+      <c r="P30" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1443,8 +2222,33 @@
       <c r="H31" s="1">
         <v>314.28739058163512</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="1">
+        <v>220.27370531584296</v>
+      </c>
+      <c r="J31" s="1">
+        <v>11.013685265792148</v>
+      </c>
+      <c r="K31" s="1">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N31" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O31" s="1">
+        <v>54</v>
+      </c>
+      <c r="P31" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +2273,33 @@
       <c r="H32" s="1">
         <v>278.5002544099051</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="1">
+        <v>186.1907184856239</v>
+      </c>
+      <c r="J32" s="1">
+        <v>9.3095359242811959</v>
+      </c>
+      <c r="K32" s="1">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" ref="M32" si="3">4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N32" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O32" s="1">
+        <v>54</v>
+      </c>
+      <c r="P32" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1495,8 +2324,32 @@
       <c r="H33" s="1">
         <v>216.03614457831324</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="1">
+        <v>139.03614457831324</v>
+      </c>
+      <c r="J33" s="1">
+        <v>14</v>
+      </c>
+      <c r="K33" s="1">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20</v>
+      </c>
+      <c r="M33" s="1">
+        <v>32</v>
+      </c>
+      <c r="N33" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O33" s="1">
+        <v>36</v>
+      </c>
+      <c r="P33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1521,8 +2374,32 @@
       <c r="H34" s="1">
         <v>260.28915662650604</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="1">
+        <v>183.13253012048196</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9.1566265060240983</v>
+      </c>
+      <c r="K34" s="1">
+        <v>16</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20</v>
+      </c>
+      <c r="M34" s="1">
+        <v>32</v>
+      </c>
+      <c r="N34" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O34" s="1">
+        <v>36</v>
+      </c>
+      <c r="P34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1547,8 +2424,32 @@
       <c r="H35" s="1">
         <v>227.88834128229783</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="1">
+        <v>147.88834128229783</v>
+      </c>
+      <c r="J35" s="1">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1">
+        <v>20</v>
+      </c>
+      <c r="M35" s="1">
+        <v>32</v>
+      </c>
+      <c r="N35" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O35" s="1">
+        <v>36</v>
+      </c>
+      <c r="P35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1573,8 +2474,32 @@
       <c r="H36" s="1">
         <v>188.06479316085816</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="1">
+        <v>121.471922326566</v>
+      </c>
+      <c r="J36" s="1">
+        <v>14</v>
+      </c>
+      <c r="K36" s="1">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1">
+        <v>12</v>
+      </c>
+      <c r="N36" s="1">
+        <v>30</v>
+      </c>
+      <c r="O36" s="1">
+        <v>52.771084337349393</v>
+      </c>
+      <c r="P36" s="1">
+        <v>17.592870834292139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1599,8 +2524,32 @@
       <c r="H37" s="1">
         <v>209.89696666463138</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" s="1">
+        <v>139.89696666463138</v>
+      </c>
+      <c r="J37" s="1">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1">
+        <v>16</v>
+      </c>
+      <c r="L37" s="1">
+        <v>20</v>
+      </c>
+      <c r="M37" s="1">
+        <v>30</v>
+      </c>
+      <c r="N37" s="1">
+        <v>10</v>
+      </c>
+      <c r="O37" s="1">
+        <v>30</v>
+      </c>
+      <c r="P37" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1625,8 +2574,32 @@
       <c r="H38" s="1">
         <v>197.22969644720516</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="1">
+        <v>142.10386260331015</v>
+      </c>
+      <c r="J38" s="1">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1">
+        <v>20</v>
+      </c>
+      <c r="M38" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N38" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O38" s="1">
+        <v>22</v>
+      </c>
+      <c r="P38" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1651,8 +2624,32 @@
       <c r="H39" s="1">
         <v>218.38071865417561</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" s="1">
+        <v>166.90941410502916</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8.3454707052514561</v>
+      </c>
+      <c r="K39" s="1">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1">
+        <v>20</v>
+      </c>
+      <c r="M39" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N39" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O39" s="1">
+        <v>22</v>
+      </c>
+      <c r="P39" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1677,8 +2674,32 @@
       <c r="H40" s="1">
         <v>201.51714518697298</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="1">
+        <v>142.39131134307797</v>
+      </c>
+      <c r="J40" s="1">
+        <v>15</v>
+      </c>
+      <c r="K40" s="1">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1">
+        <v>20</v>
+      </c>
+      <c r="M40" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N40" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O40" s="1">
+        <v>22</v>
+      </c>
+      <c r="P40" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1703,8 +2724,32 @@
       <c r="H41" s="1">
         <v>196.90587614632696</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" s="1">
+        <v>138.78004230243195</v>
+      </c>
+      <c r="J41" s="1">
+        <v>13</v>
+      </c>
+      <c r="K41" s="1">
+        <v>16</v>
+      </c>
+      <c r="L41" s="1">
+        <v>20</v>
+      </c>
+      <c r="M41" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N41" s="1">
+        <v>39.287665309964659</v>
+      </c>
+      <c r="O41" s="1">
+        <v>22</v>
+      </c>
+      <c r="P41" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1729,8 +2774,34 @@
       <c r="H42" s="1">
         <v>222.18072289156632</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="1">
+        <v>166.74698795180728</v>
+      </c>
+      <c r="J42" s="1">
+        <v>8.3373493975903639</v>
+      </c>
+      <c r="K42" s="1">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1">
+        <v>20</v>
+      </c>
+      <c r="M42" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N42" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O42" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P42" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1755,8 +2826,34 @@
       <c r="H43" s="1">
         <v>203.37474119705396</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" s="1">
+        <v>141.2783556548853</v>
+      </c>
+      <c r="J43" s="1">
+        <v>14</v>
+      </c>
+      <c r="K43" s="1">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1">
+        <v>20</v>
+      </c>
+      <c r="M43" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N43" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O43" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P43" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1781,8 +2878,34 @@
       <c r="H44" s="1">
         <v>197.32707438387337</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="1">
+        <v>139.26732270638544</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6.9633661353192737</v>
+      </c>
+      <c r="K44" s="1">
+        <v>17</v>
+      </c>
+      <c r="L44" s="1">
+        <v>20</v>
+      </c>
+      <c r="M44" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N44" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O44" s="1">
+        <f>0.81/81*1000</f>
+        <v>10</v>
+      </c>
+      <c r="P44" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1807,8 +2930,34 @@
       <c r="H45" s="1">
         <v>193.09638554216866</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="1">
+        <v>135</v>
+      </c>
+      <c r="J45" s="1">
+        <v>13</v>
+      </c>
+      <c r="K45" s="1">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1">
+        <v>20</v>
+      </c>
+      <c r="M45" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N45" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" ref="O45:O46" si="4">0.81/81*1000</f>
+        <v>10</v>
+      </c>
+      <c r="P45" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1833,8 +2982,34 @@
       <c r="H46" s="1">
         <v>194.63415824761688</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="1">
+        <v>140.51216448137924</v>
+      </c>
+      <c r="J46" s="1">
+        <v>7.0256082240689617</v>
+      </c>
+      <c r="K46" s="1">
+        <v>13</v>
+      </c>
+      <c r="L46" s="1">
+        <v>20</v>
+      </c>
+      <c r="M46" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N46" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P46" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1859,8 +3034,33 @@
       <c r="H47" s="1">
         <v>214.43373493975901</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="1">
+        <v>154.33734939759034</v>
+      </c>
+      <c r="J47" s="1">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1">
+        <v>20</v>
+      </c>
+      <c r="M47" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N47" s="1">
+        <v>34</v>
+      </c>
+      <c r="O47" s="1">
+        <f>0.5/83*1000</f>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="P47" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1885,8 +3085,34 @@
       <c r="H48" s="1">
         <v>225.58187121325483</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" s="1">
+        <v>142.77108433734941</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>15</v>
+      </c>
+      <c r="L48" s="1">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48" si="5">3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O48" s="1">
+        <f>0.51/81*1000</f>
+        <v>6.2962962962962967</v>
+      </c>
+      <c r="P48" s="1">
+        <v>36.810786875905436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1911,8 +3137,33 @@
       <c r="H49" s="1">
         <v>223.37349397590361</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" s="1">
+        <v>143.37349397590361</v>
+      </c>
+      <c r="J49" s="1">
+        <v>14</v>
+      </c>
+      <c r="K49" s="1">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1">
+        <v>20</v>
+      </c>
+      <c r="M49" s="1">
+        <v>32.197119136693814</v>
+      </c>
+      <c r="N49" s="1">
+        <v>34.051503611738397</v>
+      </c>
+      <c r="O49" s="1">
+        <f>4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="P49" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1937,8 +3188,33 @@
       <c r="H50" s="1">
         <v>313.77108433734941</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" s="1">
+        <v>221.68674698795181</v>
+      </c>
+      <c r="J50" s="1">
+        <v>11.084337349397588</v>
+      </c>
+      <c r="K50" s="1">
+        <v>13</v>
+      </c>
+      <c r="L50" s="1">
+        <v>20</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" ref="M50" si="6">4.5/83*1000</f>
+        <v>54.216867469879517</v>
+      </c>
+      <c r="N50" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O50" s="1">
+        <v>54</v>
+      </c>
+      <c r="P50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1963,8 +3239,32 @@
       <c r="H51" s="1">
         <v>210.17274211380379</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" s="1">
+        <v>137.30737344171789</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.8653686720858946</v>
+      </c>
+      <c r="K51" s="1">
+        <v>14</v>
+      </c>
+      <c r="L51" s="1">
+        <v>20</v>
+      </c>
+      <c r="M51" s="1">
+        <v>32</v>
+      </c>
+      <c r="N51" s="1">
+        <v>15.675915793818287</v>
+      </c>
+      <c r="O51" s="1">
+        <v>36</v>
+      </c>
+      <c r="P51" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1989,8 +3289,32 @@
       <c r="H52" s="1">
         <v>220.24710214674977</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" s="1">
+        <v>140.24710214674977</v>
+      </c>
+      <c r="J52" s="1">
+        <v>13</v>
+      </c>
+      <c r="K52" s="1">
+        <v>15</v>
+      </c>
+      <c r="L52" s="1">
+        <v>20</v>
+      </c>
+      <c r="M52" s="1">
+        <v>32</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1.3011010108869179</v>
+      </c>
+      <c r="O52" s="1">
+        <v>36</v>
+      </c>
+      <c r="P52" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2015,8 +3339,32 @@
       <c r="H53" s="1">
         <v>203.25390533480527</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" s="1">
+        <v>133.57514793790978</v>
+      </c>
+      <c r="J53" s="1">
+        <v>6.678757396895489</v>
+      </c>
+      <c r="K53" s="1">
+        <v>11</v>
+      </c>
+      <c r="L53" s="1">
+        <v>20</v>
+      </c>
+      <c r="M53" s="1">
+        <v>32</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1.3011010108869179</v>
+      </c>
+      <c r="O53" s="1">
+        <v>36</v>
+      </c>
+      <c r="P53" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2041,8 +3389,33 @@
       <c r="H54" s="1">
         <v>169.08006625072278</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" s="1">
+        <v>112.84733790946632</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5.6423668954733159</v>
+      </c>
+      <c r="K54" s="1">
+        <v>13</v>
+      </c>
+      <c r="L54" s="1">
+        <v>20</v>
+      </c>
+      <c r="M54" s="1">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1">
+        <v>30</v>
+      </c>
+      <c r="O54" s="1">
+        <v>52.771084337349393</v>
+      </c>
+      <c r="P54" s="1">
+        <f>1.46/83*1000</f>
+        <v>17.590361445783131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2067,8 +3440,33 @@
       <c r="H55" s="1">
         <v>180.507718004872</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" s="1">
+        <v>112.91735655908886</v>
+      </c>
+      <c r="J55" s="1">
+        <v>16</v>
+      </c>
+      <c r="K55" s="1">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1">
+        <v>12</v>
+      </c>
+      <c r="N55" s="1">
+        <v>30</v>
+      </c>
+      <c r="O55" s="1">
+        <v>52.771084337349393</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" ref="P55:P56" si="7">1.46/83*1000</f>
+        <v>17.590361445783131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2093,8 +3491,34 @@
       <c r="H56" s="1">
         <v>208.95180722891564</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" s="1">
+        <v>148.9156626506024</v>
+      </c>
+      <c r="J56" s="1">
+        <v>7.4457831325301207</v>
+      </c>
+      <c r="K56" s="1">
+        <v>15</v>
+      </c>
+      <c r="L56" s="1">
+        <v>20</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" ref="M56" si="8">2.5/83*1000</f>
+        <v>30.120481927710845</v>
+      </c>
+      <c r="N56" s="1">
+        <v>10</v>
+      </c>
+      <c r="O56" s="1">
+        <v>30</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="7"/>
+        <v>17.590361445783131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2119,8 +3543,33 @@
       <c r="H57" s="1">
         <v>192.50032161773461</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" s="1">
+        <v>137.3744877738396</v>
+      </c>
+      <c r="J57" s="1">
+        <v>15</v>
+      </c>
+      <c r="K57" s="1">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N57" s="1">
+        <f>3.26/83*1000</f>
+        <v>39.277108433734938</v>
+      </c>
+      <c r="O57" s="1">
+        <v>22</v>
+      </c>
+      <c r="P57" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2145,8 +3594,33 @@
       <c r="H58" s="1">
         <v>172.92730804173272</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" s="1">
+        <v>114.80147419783772</v>
+      </c>
+      <c r="J58" s="1">
+        <v>16</v>
+      </c>
+      <c r="K58" s="1">
+        <v>13</v>
+      </c>
+      <c r="L58" s="1">
+        <v>20</v>
+      </c>
+      <c r="M58" s="1">
+        <v>20.71317549509482</v>
+      </c>
+      <c r="N58" s="1">
+        <f>3.26/83*1000</f>
+        <v>39.277108433734938</v>
+      </c>
+      <c r="O58" s="1">
+        <v>22</v>
+      </c>
+      <c r="P58" s="1">
+        <v>9.1258338438950215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2171,8 +3645,34 @@
       <c r="H59" s="1">
         <v>189.90963855421683</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" s="1">
+        <v>135.06024096385539</v>
+      </c>
+      <c r="J59" s="1">
+        <v>6.7530120481927689</v>
+      </c>
+      <c r="K59" s="1">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1">
+        <v>20</v>
+      </c>
+      <c r="M59" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N59" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O59" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P59" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2197,8 +3697,34 @@
       <c r="H60" s="1">
         <v>199.09638554216866</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" s="1">
+        <v>135</v>
+      </c>
+      <c r="J60" s="1">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1">
+        <v>15</v>
+      </c>
+      <c r="L60" s="1">
+        <v>20</v>
+      </c>
+      <c r="M60" s="1">
+        <v>14.096385542168674</v>
+      </c>
+      <c r="N60" s="1">
+        <f>3.5/83*1000</f>
+        <v>42.168674698795179</v>
+      </c>
+      <c r="O60" s="1">
+        <f>0.8/83*1000</f>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P60" s="1">
+        <v>14.096385542168674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2223,8 +3749,32 @@
       <c r="H61" s="1">
         <v>361.33333333333331</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61" s="1">
+        <v>361.33333333333331</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2249,8 +3799,32 @@
       <c r="H62" s="1">
         <v>361.33333333333331</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" s="1">
+        <v>361.33333333333331</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2275,8 +3849,32 @@
       <c r="H63" s="1">
         <v>361.33333333333331</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" s="1">
+        <v>361.33333333333331</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2300,6 +3898,30 @@
       </c>
       <c r="H64" s="1">
         <v>361.33333333333331</v>
+      </c>
+      <c r="I64" s="1">
+        <v>361.33333333333331</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
